--- a/tables/cifar10_vgg_1.xlsx
+++ b/tables/cifar10_vgg_1.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,102 +476,102 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>BAARD2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>BAARD3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>LID</t>
         </is>
       </c>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>magnet</t>
         </is>
       </c>
-      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>FPR</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>FPR</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>FPR</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>FPR</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>FPR</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>FPR</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
@@ -588,6 +588,11 @@
           <t>Epsilon</t>
         </is>
       </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy after attack</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -598,40 +603,43 @@
       <c r="B4" s="1" t="n">
         <v>0.031</v>
       </c>
-      <c r="C4" t="n">
-        <v>12.5</v>
+      <c r="C4" s="1" t="n">
+        <v>0.1</v>
       </c>
       <c r="D4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E4" t="n">
         <v>27.6</v>
       </c>
-      <c r="E4" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F4" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G4" t="n">
         <v>35.2</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4.5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>86.5</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>37.2</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>4.2</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O4" t="n">
         <v>30.3</v>
       </c>
     </row>
@@ -640,40 +648,43 @@
       <c r="B5" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C5" t="n">
-        <v>12.5</v>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E5" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="E5" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F5" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G5" t="n">
         <v>99.5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>16.9</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>99.8</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>82</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>37.3</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>1.7</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -682,40 +693,43 @@
       <c r="B6" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C6" t="n">
-        <v>12.5</v>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="E6" t="n">
-        <v>16.2</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>16.2</v>
       </c>
       <c r="G6" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" t="n">
         <v>16.4</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.2</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>91.90000000000001</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>37.3</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>1.2</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -724,40 +738,43 @@
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>12.5</v>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="E7" t="n">
-        <v>16.2</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>16.2</v>
       </c>
       <c r="G7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" t="n">
         <v>16.6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>95</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>37.3</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>1.1</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -766,40 +783,43 @@
       <c r="B8" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C8" t="n">
-        <v>12.5</v>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="E8" t="n">
-        <v>16.2</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>16.2</v>
       </c>
       <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" t="n">
         <v>16.5</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>91.3</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>37.6</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>2.3</v>
       </c>
-      <c r="M8" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -812,40 +832,43 @@
       <c r="B9" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C9" t="n">
-        <v>12.5</v>
+      <c r="C9" s="1" t="n">
+        <v>99.40000000000001</v>
       </c>
       <c r="D9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E9" t="n">
         <v>99.5</v>
       </c>
-      <c r="E9" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F9" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G9" t="n">
         <v>99.5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>22.5</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>37.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O9" t="n">
         <v>99.40000000000001</v>
       </c>
     </row>
@@ -854,40 +877,43 @@
       <c r="B10" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C10" t="n">
-        <v>12.5</v>
+      <c r="C10" s="1" t="n">
+        <v>98.90000000000001</v>
       </c>
       <c r="D10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E10" t="n">
         <v>99</v>
       </c>
-      <c r="E10" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F10" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G10" t="n">
         <v>99</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>77.60000000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>37.4</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="M10" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O10" t="n">
         <v>98.90000000000001</v>
       </c>
     </row>
@@ -896,40 +922,43 @@
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>12.5</v>
+      <c r="C11" s="1" t="n">
+        <v>98.3</v>
       </c>
       <c r="D11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E11" t="n">
         <v>98.5</v>
       </c>
-      <c r="E11" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F11" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G11" t="n">
         <v>98.5</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>98.3</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>37.2</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>98.3</v>
       </c>
-      <c r="M11" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O11" t="n">
         <v>98.3</v>
       </c>
     </row>
@@ -938,40 +967,43 @@
       <c r="B12" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C12" t="n">
-        <v>12.5</v>
+      <c r="C12" s="1" t="n">
+        <v>96.59999999999999</v>
       </c>
       <c r="D12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E12" t="n">
         <v>97.2</v>
       </c>
-      <c r="E12" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F12" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G12" t="n">
         <v>97.3</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>37.3</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>96.7</v>
       </c>
-      <c r="M12" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O12" t="n">
         <v>96.59999999999999</v>
       </c>
     </row>
@@ -980,36 +1012,39 @@
       <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="n">
-        <v>12.5</v>
+      <c r="C13" s="1" t="n">
+        <v>94.8</v>
       </c>
       <c r="D13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E13" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c r="E13" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F13" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G13" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>94.8</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>37.6</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>94.8</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O13" t="n">
         <v>94.8</v>
       </c>
     </row>
@@ -1018,36 +1053,39 @@
       <c r="B14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
-        <v>12.5</v>
+      <c r="C14" s="1" t="n">
+        <v>91.3</v>
       </c>
       <c r="D14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E14" t="n">
         <v>92.40000000000001</v>
       </c>
-      <c r="E14" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F14" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G14" t="n">
         <v>92.7</v>
       </c>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>91.3</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>37.4</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>91.3</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O14" t="n">
         <v>91.3</v>
       </c>
     </row>
@@ -1056,36 +1094,39 @@
       <c r="B15" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>12.5</v>
+      <c r="C15" s="1" t="n">
+        <v>82.5</v>
       </c>
       <c r="D15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E15" t="n">
         <v>84.2</v>
       </c>
-      <c r="E15" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F15" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G15" t="n">
         <v>85.2</v>
       </c>
-      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>82.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>37.4</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>82.69999999999999</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O15" t="n">
         <v>82.59999999999999</v>
       </c>
     </row>
@@ -1098,36 +1139,39 @@
       <c r="B16" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="1" t="n">
+        <v>46.7</v>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G16" t="n">
         <v>58.1</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>70.39999999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>46.7</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>37.3</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>47.8</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O16" t="n">
         <v>48.5</v>
       </c>
     </row>
@@ -1136,40 +1180,43 @@
       <c r="B17" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C17" t="n">
-        <v>12.5</v>
+      <c r="C17" s="1" t="n">
+        <v>17.4</v>
       </c>
       <c r="D17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E17" t="n">
         <v>31.4</v>
       </c>
-      <c r="E17" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F17" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G17" t="n">
         <v>38.3</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>4.7</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>39.3</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>17.4</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>37.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>19.2</v>
       </c>
-      <c r="M17" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O17" t="n">
         <v>27.7</v>
       </c>
     </row>
@@ -1178,40 +1225,43 @@
       <c r="B18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
-        <v>12.5</v>
+      <c r="C18" s="1" t="n">
+        <v>12.9</v>
       </c>
       <c r="D18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E18" t="n">
         <v>31.9</v>
       </c>
-      <c r="E18" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F18" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G18" t="n">
         <v>38.5</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>4.5</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>84.3</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>12.9</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>37.4</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>15.2</v>
       </c>
-      <c r="M18" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O18" t="n">
         <v>32.3</v>
       </c>
     </row>
@@ -1220,40 +1270,43 @@
       <c r="B19" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C19" t="n">
-        <v>12.5</v>
+      <c r="C19" s="1" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="D19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E19" t="n">
         <v>31.5</v>
       </c>
-      <c r="E19" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F19" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G19" t="n">
         <v>38.5</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>21.1</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>37.3</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>14.8</v>
       </c>
-      <c r="M19" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O19" t="n">
         <v>43.2</v>
       </c>
     </row>
@@ -1262,36 +1315,39 @@
       <c r="B20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C20" t="n">
-        <v>12.5</v>
+      <c r="C20" s="1" t="n">
+        <v>6.600000000000001</v>
       </c>
       <c r="D20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E20" t="n">
         <v>32.8</v>
       </c>
-      <c r="E20" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F20" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G20" t="n">
         <v>39.5</v>
       </c>
-      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>37.3</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>13.1</v>
       </c>
-      <c r="M20" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O20" t="n">
         <v>59.7</v>
       </c>
     </row>
@@ -1300,36 +1356,39 @@
       <c r="B21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C21" t="n">
-        <v>12.5</v>
+      <c r="C21" s="1" t="n">
+        <v>3.1</v>
       </c>
       <c r="D21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E21" t="n">
         <v>35.9</v>
       </c>
-      <c r="E21" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F21" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G21" t="n">
         <v>42.4</v>
       </c>
-      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>1.8</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>26.9</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>37.7</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>7.7</v>
       </c>
-      <c r="M21" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O21" t="n">
         <v>83</v>
       </c>
     </row>
@@ -1338,36 +1397,39 @@
       <c r="B22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C22" t="n">
-        <v>12.5</v>
+      <c r="C22" s="1" t="n">
+        <v>0.6</v>
       </c>
       <c r="D22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E22" t="n">
         <v>52.40000000000001</v>
       </c>
-      <c r="E22" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F22" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G22" t="n">
         <v>57.99999999999999</v>
       </c>
-      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>1.3</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>53.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>37.5</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>3.9</v>
       </c>
-      <c r="M22" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O22" t="n">
         <v>99.3</v>
       </c>
     </row>
@@ -1380,40 +1442,43 @@
       <c r="B23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
-        <v>12.5</v>
+      <c r="C23" s="1" t="n">
+        <v>0.2</v>
       </c>
       <c r="D23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E23" t="n">
         <v>16.4</v>
       </c>
-      <c r="E23" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F23" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G23" t="n">
         <v>26.2</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>69.19999999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
       <c r="I23" t="n">
+        <v>100</v>
+      </c>
+      <c r="J23" t="n">
         <v>7.399999999999999</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>72</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>37.3</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>4.4</v>
       </c>
-      <c r="M23" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O23" t="n">
         <v>5.1</v>
       </c>
     </row>
@@ -1422,40 +1487,43 @@
       <c r="B24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C24" t="n">
-        <v>12.5</v>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E24" t="n">
         <v>16.6</v>
       </c>
-      <c r="E24" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F24" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G24" t="n">
         <v>26.1</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>69.3</v>
       </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
       <c r="I24" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" t="n">
         <v>11.2</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>40.7</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>37.3</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>3.7</v>
       </c>
-      <c r="M24" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O24" t="n">
         <v>10.2</v>
       </c>
     </row>
@@ -1464,40 +1532,43 @@
       <c r="B25" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C25" t="n">
-        <v>12.5</v>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E25" t="n">
         <v>17</v>
       </c>
-      <c r="E25" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F25" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G25" t="n">
         <v>26.5</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>69.69999999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>37.4</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>3.4</v>
       </c>
-      <c r="M25" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O25" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1510,40 +1581,43 @@
       <c r="B26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
-        <v>12.5</v>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E26" t="n">
         <v>16.1</v>
       </c>
-      <c r="E26" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F26" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G26" t="n">
         <v>24.9</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>69.3</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>98.5</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>8.1</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>45.7</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>37.8</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>2.8</v>
       </c>
-      <c r="M26" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O26" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -1552,40 +1626,43 @@
       <c r="B27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C27" t="n">
-        <v>12.5</v>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E27" t="n">
         <v>16.4</v>
       </c>
-      <c r="E27" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F27" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G27" t="n">
         <v>25.1</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>69.5</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>97.2</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>5.2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>13</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>37</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>2.5</v>
       </c>
-      <c r="M27" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O27" t="n">
         <v>0.8999999999999999</v>
       </c>
     </row>
@@ -1598,40 +1675,43 @@
       <c r="B28" s="1" t="n">
         <v>1e-06</v>
       </c>
-      <c r="C28" t="n">
-        <v>12.5</v>
+      <c r="C28" s="1" t="n">
+        <v>3.7</v>
       </c>
       <c r="D28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E28" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="E28" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F28" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G28" t="n">
         <v>82</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>69.19999999999999</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.7</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>37.5</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="M28" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O28" t="n">
         <v>62.6</v>
       </c>
     </row>
@@ -1644,40 +1724,43 @@
       <c r="B29" s="1" t="n">
         <v>0.031</v>
       </c>
-      <c r="C29" t="n">
-        <v>12.5</v>
+      <c r="C29" s="1" t="n">
+        <v>8.4</v>
       </c>
       <c r="D29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E29" t="n">
         <v>36.7</v>
       </c>
-      <c r="E29" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F29" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G29" t="n">
         <v>43.7</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>74.3</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>3</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>21.9</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>37.5</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>10.9</v>
       </c>
-      <c r="M29" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O29" t="n">
         <v>9.199999999999999</v>
       </c>
     </row>
@@ -1686,40 +1769,43 @@
       <c r="B30" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C30" t="n">
-        <v>12.5</v>
+      <c r="C30" s="1" t="n">
+        <v>7.5</v>
       </c>
       <c r="D30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E30" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E30" t="n">
-        <v>16.2</v>
-      </c>
       <c r="F30" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G30" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>69</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>99.8</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>7.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>37.3</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>9.6</v>
       </c>
-      <c r="M30" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O30" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1728,40 +1814,43 @@
       <c r="B31" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C31" t="n">
-        <v>12.5</v>
+      <c r="C31" s="1" t="n">
+        <v>8.4</v>
       </c>
       <c r="D31" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="E31" t="n">
-        <v>16.2</v>
+        <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>16.2</v>
       </c>
       <c r="G31" t="n">
+        <v>100</v>
+      </c>
+      <c r="H31" t="n">
         <v>69.5</v>
       </c>
-      <c r="H31" t="n">
-        <v>100</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>8.4</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>37.2</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>14.2</v>
       </c>
-      <c r="M31" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O31" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1770,40 +1859,43 @@
       <c r="B32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="n">
-        <v>12.5</v>
+      <c r="C32" s="1" t="n">
+        <v>7.000000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="E32" t="n">
-        <v>16.2</v>
+        <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>16.2</v>
       </c>
       <c r="G32" t="n">
+        <v>100</v>
+      </c>
+      <c r="H32" t="n">
         <v>69.09999999999999</v>
       </c>
-      <c r="H32" t="n">
-        <v>100</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>7.000000000000001</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>37.3</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>14.9</v>
       </c>
-      <c r="M32" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O32" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1812,51 +1904,54 @@
       <c r="B33" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C33" t="n">
-        <v>12.5</v>
+      <c r="C33" s="1" t="n">
+        <v>7.000000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="E33" t="n">
-        <v>16.2</v>
+        <v>100</v>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>16.2</v>
       </c>
       <c r="G33" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="H33" t="n">
-        <v>100</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>37.5</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>15</v>
       </c>
-      <c r="M33" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O33" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="A16:A22"/>
